--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -605,10 +605,10 @@
     <t>Baja California</t>
   </si>
   <si>
-    <t>Debido al reajuste de presupuesto por escuela en casa, no se han generado recursos propios para otorgar becas institucionales</t>
-  </si>
-  <si>
-    <t>Área de Becas (UPP)</t>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Debido al reajuste de presupuesto por programa Escuela en casa, no se han generado recursos propios para otorgar becas institucionales</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -688,21 +688,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -713,26 +704,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda 2" xfId="1"/>
@@ -1017,7 +1003,7 @@
   <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:AN6"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1047,7 @@
     <col min="37" max="37" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="31.85546875" customWidth="1"/>
+    <col min="40" max="40" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
@@ -1070,40 +1056,38 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:40" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1350,48 +1334,48 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
     </row>
     <row r="7" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1515,60 +1499,60 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
       <c r="B8" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="AN8" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="AN8" s="11" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1576,19 +1560,19 @@
     <mergeCell ref="A6:AN6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S9:S197">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
       <formula1>Hidden_118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W9:W197">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
       <formula1>Hidden_222</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD9:AD197">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD8">
       <formula1>Hidden_329</formula1>
     </dataValidation>
   </dataValidations>
@@ -1601,137 +1585,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1744,212 +1733,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1962,167 +1956,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="10" t="s">
         <v>191</v>
       </c>
     </row>

--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Debido al reajuste de presupuesto por programa Escuela en casa, no se han generado recursos propios para otorgar becas institucionales</t>
+    <t>Debido a la contingencia por COVID-19, no se han tenido clases presenciales por el Programa Mi Escuela en Casa. Por las características de las becas Institucionales, se otorgarán cuando las y los estudiantes regresen a la nueva normalidad.</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -704,21 +704,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda 2" xfId="1"/>
@@ -1002,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1046,7 @@
     <col min="37" max="37" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="46.85546875" customWidth="1"/>
+    <col min="40" max="40" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
@@ -1056,38 +1055,38 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:40" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1334,48 +1333,48 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
     </row>
     <row r="7" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1499,15 +1498,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1546,12 +1545,12 @@
         <v>192</v>
       </c>
       <c r="AL8" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AM8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AN8" s="4" t="s">
+        <v>44298</v>
+      </c>
+      <c r="AN8" s="9" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1585,142 +1584,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1733,217 +1727,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1956,172 +1945,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" t="s">
         <v>191</v>
       </c>
     </row>

--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,10 +17,16 @@
     <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
     <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Hidden_118">Hidden_1!$A$1:$A$26</definedName>
     <definedName name="Hidden_222">Hidden_2!$A$1:$A$41</definedName>
+    <definedName name="Hidden_228">[1]Hidden_2!$A$1:$A$26</definedName>
     <definedName name="Hidden_329">Hidden_3!$A$1:$A$32</definedName>
+    <definedName name="Hidden_332">[1]Hidden_3!$A$1:$A$41</definedName>
+    <definedName name="Hidden_439">[1]Hidden_4!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -608,7 +614,7 @@
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Debido a la contingencia por COVID-19, no se han tenido clases presenciales por el Programa Mi Escuela en Casa. Por las características de las becas Institucionales, se otorgarán cuando las y los estudiantes regresen a la nueva normalidad.</t>
+    <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca; no tiene bajo su responsabilidad el otorgar este tipo de Programas.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -642,6 +648,14 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -689,11 +703,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -704,22 +719,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -734,6 +756,525 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reporte de Formatos"/>
+      <sheetName val="Hidden_1"/>
+      <sheetName val="Hidden_2"/>
+      <sheetName val="Hidden_3"/>
+      <sheetName val="Hidden_4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Carretera</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Privada</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Eje vial</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Circunvalación</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Brecha</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Diagonal</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Calle</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Corredor</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Circuito</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Pasaje</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Vereda</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Calzada</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Viaducto</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Prolongación</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Boulevard</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Peatonal</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Retorno</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Camino</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Callejón</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Cerrada</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Ampliación</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Continuación</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Terracería</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Andador</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Periférico</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Avenida</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Aeropuerto</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Ampliación</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Barrio</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Cantón</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Ciudad</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Ciudad industrial</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Colonia</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Condominio</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Conjunto habitacional</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Corredor industrial</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Coto</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Cuartel</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Ejido</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Exhacienda</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Fracción</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Fraccionamiento</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Granja</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Hacienda</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Ingenio</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Manzana</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Paraje</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Parque industrial</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Privada</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Prolongación</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Pueblo</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Puerto</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Ranchería</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Rancho</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Región</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Residencial</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Rinconada</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Sección</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Sector</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Supermanzana</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Unidad</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Unidad habitacional</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Villa</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Zona federal</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Zona industrial</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Zona militar</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Zona naval</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>México</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Guerrero</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Puebla</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Quintana Roo</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Guanajuato</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Durango</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Michoacán de Ocampo</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>San Luis Potosí</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Campeche</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Coahuila de Zaragoza</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Nayarit</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Zacatecas</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Morelos</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Sonora</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Baja California Sur</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Colima</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Tabasco</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Oaxaca</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Tlaxcala</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Jalisco</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Chiapas</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Hidalgo</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Aguascalientes</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Tamaulipas</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Sinaloa</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Yucatán</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Chihuahua</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Querétaro</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Nuevo León</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Veracruz de Ignacio de la Llave</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Ciudad de México</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Baja California</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1001,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1553,7 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" customWidth="1"/>
     <col min="7" max="7" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -1046,7 +1587,7 @@
     <col min="37" max="37" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="41.7109375" customWidth="1"/>
+    <col min="40" max="40" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
@@ -1055,38 +1596,38 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:40" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1333,48 +1874,48 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
     </row>
     <row r="7" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1498,59 +2039,59 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="5" t="s">
         <v>192</v>
       </c>
       <c r="AL8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AM8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AN8" s="9" t="s">
+        <v>44386</v>
+      </c>
+      <c r="AN8" s="7" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1565,14 +2106,14 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
+      <formula1>Hidden_332</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
-      <formula1>Hidden_118</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
-      <formula1>Hidden_222</formula1>
+      <formula1>Hidden_228</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD8">
-      <formula1>Hidden_329</formula1>
+      <formula1>Hidden_439</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,10 +2044,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2086,10 +2086,10 @@
         <v>192</v>
       </c>
       <c r="AL8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AM8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AN8" s="7" t="s">
         <v>193</v>

--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="AK2" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,10 +2044,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2086,10 +2086,10 @@
         <v>192</v>
       </c>
       <c r="AL8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AM8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AN8" s="7" t="s">
         <v>193</v>

--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -679,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -702,13 +697,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -739,6 +743,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1532,7 +1542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1542,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK2" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1622,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1623,11 +1633,11 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2041,13 +2051,13 @@
     </row>
     <row r="8" spans="1:40" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2086,10 +2096,10 @@
         <v>192</v>
       </c>
       <c r="AL8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AM8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AN8" s="7" t="s">
         <v>193</v>

--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -1542,7 +1542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="AL2" workbookViewId="0">
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,10 +2054,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2096,10 +2096,10 @@
         <v>192</v>
       </c>
       <c r="AL8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AM8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AN8" s="7" t="s">
         <v>193</v>

--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -1542,7 +1542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL2" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AN10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,10 +2054,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2096,10 +2096,10 @@
         <v>192</v>
       </c>
       <c r="AL8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AM8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AN8" s="7" t="s">
         <v>193</v>

--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE0B6EB0-9EC9-48CE-9FEF-4BB0EAD2228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -615,7 +621,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -752,7 +758,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Moneda 2" xfId="1"/>
+    <cellStyle name="Moneda 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1542,18 +1548,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,10 +2060,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2096,10 +2102,10 @@
         <v>192</v>
       </c>
       <c r="AL8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AM8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AN8" s="7" t="s">
         <v>193</v>
@@ -2116,13 +2122,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_332</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_228</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD8" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_439</formula1>
     </dataValidation>
   </dataValidations>
@@ -2132,7 +2138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2275,7 +2281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2493,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f38_bUPPachuca.xlsx
+++ b/xlsx/a69_f38_bUPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE0B6EB0-9EC9-48CE-9FEF-4BB0EAD2228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -612,16 +606,16 @@
     <t>Baja California</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
     <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca; no tiene bajo su responsabilidad el otorgar este tipo de Programas.</t>
+  </si>
+  <si>
+    <t>Unidad de Transparencia Gubernamental (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -758,7 +752,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Moneda 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1548,18 +1542,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ2" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,13 +2051,13 @@
     </row>
     <row r="8" spans="1:40" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2098,17 +2092,17 @@
       <c r="AH8" s="6"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="6"/>
-      <c r="AK8" s="5" t="s">
+      <c r="AK8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="AN8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AN8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2122,13 +2116,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
       <formula1>Hidden_332</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
       <formula1>Hidden_228</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD8" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD8">
       <formula1>Hidden_439</formula1>
     </dataValidation>
   </dataValidations>
@@ -2138,7 +2132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2281,7 +2275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2499,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
